--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T13:26:31-05:00</t>
+    <t>2022-03-17T11:48:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-CareTeam</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -436,6 +436,62 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/careteam-alias}
+</t>
+  </si>
+  <si>
+    <t>Alternate name for care team</t>
+  </si>
+  <si>
+    <t>Alternate names by which the team is also known</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/location-reference}
+</t>
+  </si>
+  <si>
+    <t>Where the care team operates</t>
+  </si>
+  <si>
+    <t>An extension to indicate the location(s) at which the care team operates</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/healthcareservice-reference}
+</t>
+  </si>
+  <si>
+    <t>Services provided by the care team</t>
+  </si>
+  <si>
+    <t>An extension to describe the healthcare services provided by the care team</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/endpoint-reference}
+</t>
+  </si>
+  <si>
+    <t>Endpoints for the care team</t>
+  </si>
+  <si>
+    <t>An extensions indicating endpoints for the care team</t>
+  </si>
+  <si>
     <t>restriction</t>
   </si>
   <si>
@@ -449,62 +505,6 @@
     <t>Identifies and conveys information about restrictions on the use or release of exchanged information, e.g. information that can only be shared under particular condition, such as a signed data use agreement between parties</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/careteam-alias}
-</t>
-  </si>
-  <si>
-    <t>Alternate name for care team</t>
-  </si>
-  <si>
-    <t>Alternate names by which the team is also known</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/location-reference}
-</t>
-  </si>
-  <si>
-    <t>Where the care team operates</t>
-  </si>
-  <si>
-    <t>An extension to indicate the location(s) at which the care team operates</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/healthcareservice-reference}
-</t>
-  </si>
-  <si>
-    <t>Services provided by the care team</t>
-  </si>
-  <si>
-    <t>An extension to describe the healthcare services provided by the care team</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/endpoint-reference}
-</t>
-  </si>
-  <si>
-    <t>Endpoints for the care team</t>
-  </si>
-  <si>
-    <t>An extensions indicating endpoints for the care team</t>
-  </si>
-  <si>
     <t>CareTeam.modifierExtension</t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/identifier-status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/identifier-status}
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
     <t>CareTeam.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -947,7 +947,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam|http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1073,14 +1073,14 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
     <t>Via Intermediary</t>
   </si>
   <si>
-    <t>A reference to an alternative point of contact (NatlDir-PractitionerRole, NatlDir-Organization, NatlDir-OrganizationAffiliation, or NatlDir-Location) for this organization</t>
+    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
   </si>
   <si>
     <t>CareTeam.telecom.system</t>
@@ -1221,7 +1221,7 @@
     <t>CareTeam.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner)
+    <t>Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
 string</t>
   </si>
   <si>
@@ -3141,7 +3141,7 @@
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>134</v>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T11:48:49-04:00</t>
+    <t>2022-03-18T15:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T15:39:35-04:00</t>
+    <t>2022-03-21T10:14:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T10:14:10-04:00</t>
+    <t>2022-04-05T18:56:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -495,7 +495,7 @@
     <t>restriction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/usage-restriction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/usage-restriction}
 </t>
   </si>
   <si>
@@ -2616,7 +2616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>127</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2724,7 +2724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>127</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2832,7 +2832,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>127</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3048,7 +3048,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>127</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3141,7 +3141,7 @@
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>134</v>
@@ -3588,7 +3588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>175</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3696,7 +3696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>181</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>84</v>
@@ -3806,7 +3806,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>191</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3916,7 +3916,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>202</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4026,7 +4026,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>211</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4134,7 +4134,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>219</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4240,7 +4240,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>226</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4348,7 +4348,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>234</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>84</v>
@@ -4674,7 +4674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>254</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4890,7 +4890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>267</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4998,7 +4998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>272</v>
       </c>
@@ -5008,13 +5008,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5428,7 +5428,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>289</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5536,7 +5536,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>297</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5644,7 +5644,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>305</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5752,7 +5752,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>310</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5858,7 +5858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>313</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5964,7 +5964,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>319</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6070,7 +6070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>322</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6178,7 +6178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>326</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6500,7 +6500,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>332</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6608,7 +6608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>332</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6716,7 +6716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>341</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6822,7 +6822,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>350</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7256,7 +7256,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>379</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7576,7 +7576,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>385</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -7684,7 +7684,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>392</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7790,7 +7790,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>398</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:56:51-04:00</t>
+    <t>2022-06-17T09:52:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T09:52:28-04:00</t>
+    <t>2022-07-25T12:57:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1605,9 +1605,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="37.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1623,25 +1623,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="122.125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="122.12890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="148.8046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="148.80859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>77</v>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T12:57:48-04:00</t>
+    <t>2022-07-25T14:11:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T11:08:50-04:00</t>
+    <t>2022-07-27T12:20:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T12:20:48-04:00</t>
+    <t>2022-08-01T16:22:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T16:22:39-04:00</t>
+    <t>2022-08-03T13:02:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:02:02-04:00</t>
+    <t>2022-08-03T17:01:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T17:01:06-04:00</t>
+    <t>2022-08-04T11:49:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-CareTeam</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-CareTeam</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:49:08-04:00</t>
+    <t>2022-08-05T09:45:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -439,7 +439,7 @@
     <t>alias</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/careteam-alias}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/careteam-alias}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/location-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/location-reference}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>service</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/healthcareservice-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/healthcareservice-reference}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/endpoint-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/endpoint-reference}
 </t>
   </si>
   <si>
@@ -495,7 +495,7 @@
     <t>restriction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/usage-restriction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/usage-restriction}
 </t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/identifier-status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/identifier-status}
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
     <t>CareTeam.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -947,7 +947,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam|http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam|http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole|http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1073,7 +1073,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1221,7 +1221,7 @@
     <t>CareTeam.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
+    <t>Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
 string</t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T09:45:36-04:00</t>
+    <t>2022-08-05T12:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:11:25-04:00</t>
+    <t>2022-07-25T13:43:16-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1604,44 +1604,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.96484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.6015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="122.12890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.09375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.05859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="148.80859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="152.41796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEx-CareTeam.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-CareTeam</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-CareTeam</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:43:16-05:00</t>
+    <t>2022-09-21T22:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -439,7 +439,7 @@
     <t>alias</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/careteam-alias}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/careteam-alias}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/location-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/location-reference}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>service</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/healthcareservice-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/healthcareservice-reference}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/endpoint-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/endpoint-reference}
 </t>
   </si>
   <si>
@@ -495,7 +495,7 @@
     <t>restriction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/usage-restriction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/usage-restriction}
 </t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/identifier-status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/identifier-status}
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
     <t>CareTeam.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -947,7 +947,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam|http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam|http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole|http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1073,7 +1073,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1221,7 +1221,7 @@
     <t>CareTeam.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
+    <t>Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
 string</t>
   </si>
   <si>
